--- a/Gantt Chart Rosen A.xlsx
+++ b/Gantt Chart Rosen A.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BE69C9-0ABA-44C1-B053-4075DAB0649B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3131A7AA-9E66-4EEC-AEBF-063570AB4D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>Task 3</t>
   </si>
@@ -194,10 +194,31 @@
     <t>Reading Break</t>
   </si>
   <si>
-    <t>Started Developing Front-end, and VGG16 and Database Exploration</t>
-  </si>
-  <si>
-    <t>Login page, Fine-tune index and image html, keep working on database</t>
+    <t>1) Orvin 
+2) Ryan
+3) Fareeha
+4) Qingyan</t>
+  </si>
+  <si>
+    <t>1) Functionality of login 
+2) Functionality in index.html                                                                           
+3) Functionality image labeling 
+4) Database (continuation)</t>
+  </si>
+  <si>
+    <t>1) Orvin, Ryan
+2) Fareeha
+3) Qingyan</t>
+  </si>
+  <si>
+    <t>1) Started Developing Front-end
+2) Trying out VGG16  
+3) Database Exploration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Login page
+2) Fine-tune index.html                                                                           3) Fine tune image html 
+4) Exploration on vector database - Milvus </t>
   </si>
 </sst>
 </file>
@@ -603,7 +624,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -819,6 +840,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -831,26 +861,20 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1365,8 +1389,8 @@
   <dimension ref="A1:BL36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="96" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1409,106 +1433,106 @@
         <v>26</v>
       </c>
       <c r="B3" s="54"/>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="80">
+      <c r="D3" s="88"/>
+      <c r="E3" s="83">
         <v>44828</v>
       </c>
-      <c r="F3" s="80"/>
+      <c r="F3" s="83"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="82"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="77">
+      <c r="I4" s="80">
         <f>I5</f>
         <v>44823</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="77">
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="80">
         <f>P5</f>
         <v>44830</v>
       </c>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="77">
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="80">
         <f>W5</f>
         <v>44837</v>
       </c>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="79"/>
-      <c r="AD4" s="77">
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="81"/>
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="80">
         <f>AD5</f>
         <v>44844</v>
       </c>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="79"/>
-      <c r="AK4" s="77">
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="81"/>
+      <c r="AH4" s="81"/>
+      <c r="AI4" s="81"/>
+      <c r="AJ4" s="82"/>
+      <c r="AK4" s="80">
         <f>AK5</f>
         <v>44851</v>
       </c>
-      <c r="AL4" s="78"/>
-      <c r="AM4" s="78"/>
-      <c r="AN4" s="78"/>
-      <c r="AO4" s="78"/>
-      <c r="AP4" s="78"/>
-      <c r="AQ4" s="79"/>
-      <c r="AR4" s="77">
+      <c r="AL4" s="81"/>
+      <c r="AM4" s="81"/>
+      <c r="AN4" s="81"/>
+      <c r="AO4" s="81"/>
+      <c r="AP4" s="81"/>
+      <c r="AQ4" s="82"/>
+      <c r="AR4" s="80">
         <f>AR5</f>
         <v>44858</v>
       </c>
-      <c r="AS4" s="78"/>
-      <c r="AT4" s="78"/>
-      <c r="AU4" s="78"/>
-      <c r="AV4" s="78"/>
-      <c r="AW4" s="78"/>
-      <c r="AX4" s="79"/>
-      <c r="AY4" s="77">
+      <c r="AS4" s="81"/>
+      <c r="AT4" s="81"/>
+      <c r="AU4" s="81"/>
+      <c r="AV4" s="81"/>
+      <c r="AW4" s="81"/>
+      <c r="AX4" s="82"/>
+      <c r="AY4" s="80">
         <f>AY5</f>
         <v>44865</v>
       </c>
-      <c r="AZ4" s="78"/>
-      <c r="BA4" s="78"/>
-      <c r="BB4" s="78"/>
-      <c r="BC4" s="78"/>
-      <c r="BD4" s="78"/>
-      <c r="BE4" s="79"/>
-      <c r="BF4" s="77">
+      <c r="AZ4" s="81"/>
+      <c r="BA4" s="81"/>
+      <c r="BB4" s="81"/>
+      <c r="BC4" s="81"/>
+      <c r="BD4" s="81"/>
+      <c r="BE4" s="82"/>
+      <c r="BF4" s="80">
         <f>BF5</f>
         <v>44872</v>
       </c>
-      <c r="BG4" s="78"/>
-      <c r="BH4" s="78"/>
-      <c r="BI4" s="78"/>
-      <c r="BJ4" s="78"/>
-      <c r="BK4" s="78"/>
-      <c r="BL4" s="79"/>
+      <c r="BG4" s="81"/>
+      <c r="BH4" s="81"/>
+      <c r="BI4" s="81"/>
+      <c r="BJ4" s="81"/>
+      <c r="BK4" s="81"/>
+      <c r="BL4" s="82"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="49" t="s">
@@ -2598,13 +2622,13 @@
       <c r="AT14" s="44"/>
       <c r="AU14" s="44"/>
       <c r="AV14" s="44"/>
-      <c r="AW14" s="85"/>
-      <c r="AX14" s="83"/>
-      <c r="AY14" s="83"/>
-      <c r="AZ14" s="83"/>
-      <c r="BA14" s="83"/>
-      <c r="BB14" s="83"/>
-      <c r="BC14" s="84"/>
+      <c r="AW14" s="84"/>
+      <c r="AX14" s="85"/>
+      <c r="AY14" s="85"/>
+      <c r="AZ14" s="85"/>
+      <c r="BA14" s="85"/>
+      <c r="BB14" s="85"/>
+      <c r="BC14" s="86"/>
       <c r="BD14" s="44"/>
       <c r="BE14" s="44"/>
       <c r="BF14" s="44"/>
@@ -2615,13 +2639,13 @@
       <c r="BK14" s="44"/>
       <c r="BL14" s="44"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="49"/>
-      <c r="B15" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>34</v>
+      <c r="B15" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="D15" s="27">
         <v>1</v>
@@ -2698,7 +2722,7 @@
     </row>
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="48"/>
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="78" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="63"/>
@@ -2775,16 +2799,16 @@
       <c r="BK16" s="44"/>
       <c r="BL16" s="44"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="44.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="72.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="48"/>
-      <c r="B17" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="63" t="s">
-        <v>34</v>
+      <c r="B17" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>40</v>
       </c>
       <c r="D17" s="27">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="E17" s="56">
         <f>F16+1</f>
@@ -2856,13 +2880,17 @@
       <c r="BK17" s="44"/>
       <c r="BL17" s="44"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="63.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="48"/>
-      <c r="B18" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="27"/>
+      <c r="B18" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0.25</v>
+      </c>
       <c r="E18" s="56">
         <f>F17+1</f>
         <v>44884</v>

--- a/Gantt Chart Rosen A.xlsx
+++ b/Gantt Chart Rosen A.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3131A7AA-9E66-4EEC-AEBF-063570AB4D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC05779-3730-4634-B494-7FB3DAA19305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,20 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>Task 3</t>
   </si>
@@ -219,6 +211,51 @@
     <t xml:space="preserve">1) Login page
 2) Fine-tune index.html                                                                           3) Fine tune image html 
 4) Exploration on vector database - Milvus </t>
+  </si>
+  <si>
+    <t>Task 1: Complete Refactoring</t>
+  </si>
+  <si>
+    <t>Task 1: Insert VGG16 Vectors into Vector Database</t>
+  </si>
+  <si>
+    <t>Qingyan</t>
+  </si>
+  <si>
+    <t>Orvin, Ryan, Fareeha</t>
+  </si>
+  <si>
+    <t>Task 2: Applying Feedback to Front-end</t>
+  </si>
+  <si>
+    <t>Task 2: Chopping video into images</t>
+  </si>
+  <si>
+    <t>Task 2: Connect "run" button to back-end inserting to database</t>
+  </si>
+  <si>
+    <t>Task 2: Exploration and Training of Machine Learning</t>
+  </si>
+  <si>
+    <t>Fareeha</t>
+  </si>
+  <si>
+    <t>Orvin</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Task3: Wrapping up front-end</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Task4: Extracting features and training AI</t>
+  </si>
+  <si>
+    <t>Orvin,Ryan and Qingyan</t>
   </si>
 </sst>
 </file>
@@ -624,7 +661,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -849,6 +886,24 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -860,21 +915,6 @@
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1386,11 +1426,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL36"/>
+  <dimension ref="A1:BL39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="96" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1433,106 +1473,106 @@
         <v>26</v>
       </c>
       <c r="B3" s="54"/>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="83">
+      <c r="D3" s="85"/>
+      <c r="E3" s="89">
         <v>44828</v>
       </c>
-      <c r="F3" s="83"/>
+      <c r="F3" s="89"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="85"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="80">
+      <c r="I4" s="86">
         <f>I5</f>
         <v>44823</v>
       </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="80">
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="86">
         <f>P5</f>
         <v>44830</v>
       </c>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="80">
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="86">
         <f>W5</f>
         <v>44837</v>
       </c>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="82"/>
-      <c r="AD4" s="80">
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="86">
         <f>AD5</f>
         <v>44844</v>
       </c>
-      <c r="AE4" s="81"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="81"/>
-      <c r="AH4" s="81"/>
-      <c r="AI4" s="81"/>
-      <c r="AJ4" s="82"/>
-      <c r="AK4" s="80">
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="88"/>
+      <c r="AK4" s="86">
         <f>AK5</f>
         <v>44851</v>
       </c>
-      <c r="AL4" s="81"/>
-      <c r="AM4" s="81"/>
-      <c r="AN4" s="81"/>
-      <c r="AO4" s="81"/>
-      <c r="AP4" s="81"/>
-      <c r="AQ4" s="82"/>
-      <c r="AR4" s="80">
+      <c r="AL4" s="87"/>
+      <c r="AM4" s="87"/>
+      <c r="AN4" s="87"/>
+      <c r="AO4" s="87"/>
+      <c r="AP4" s="87"/>
+      <c r="AQ4" s="88"/>
+      <c r="AR4" s="86">
         <f>AR5</f>
         <v>44858</v>
       </c>
-      <c r="AS4" s="81"/>
-      <c r="AT4" s="81"/>
-      <c r="AU4" s="81"/>
-      <c r="AV4" s="81"/>
-      <c r="AW4" s="81"/>
-      <c r="AX4" s="82"/>
-      <c r="AY4" s="80">
+      <c r="AS4" s="87"/>
+      <c r="AT4" s="87"/>
+      <c r="AU4" s="87"/>
+      <c r="AV4" s="87"/>
+      <c r="AW4" s="87"/>
+      <c r="AX4" s="88"/>
+      <c r="AY4" s="86">
         <f>AY5</f>
         <v>44865</v>
       </c>
-      <c r="AZ4" s="81"/>
-      <c r="BA4" s="81"/>
-      <c r="BB4" s="81"/>
-      <c r="BC4" s="81"/>
-      <c r="BD4" s="81"/>
-      <c r="BE4" s="82"/>
-      <c r="BF4" s="80">
+      <c r="AZ4" s="87"/>
+      <c r="BA4" s="87"/>
+      <c r="BB4" s="87"/>
+      <c r="BC4" s="87"/>
+      <c r="BD4" s="87"/>
+      <c r="BE4" s="88"/>
+      <c r="BF4" s="86">
         <f>BF5</f>
         <v>44872</v>
       </c>
-      <c r="BG4" s="81"/>
-      <c r="BH4" s="81"/>
-      <c r="BI4" s="81"/>
-      <c r="BJ4" s="81"/>
-      <c r="BK4" s="81"/>
-      <c r="BL4" s="82"/>
+      <c r="BG4" s="87"/>
+      <c r="BH4" s="87"/>
+      <c r="BI4" s="87"/>
+      <c r="BJ4" s="87"/>
+      <c r="BK4" s="87"/>
+      <c r="BL4" s="88"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="49" t="s">
@@ -2097,7 +2137,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H33" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H36" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="44"/>
@@ -2622,13 +2662,13 @@
       <c r="AT14" s="44"/>
       <c r="AU14" s="44"/>
       <c r="AV14" s="44"/>
-      <c r="AW14" s="84"/>
-      <c r="AX14" s="85"/>
-      <c r="AY14" s="85"/>
-      <c r="AZ14" s="85"/>
-      <c r="BA14" s="85"/>
-      <c r="BB14" s="85"/>
-      <c r="BC14" s="86"/>
+      <c r="AW14" s="81"/>
+      <c r="AX14" s="82"/>
+      <c r="AY14" s="82"/>
+      <c r="AZ14" s="82"/>
+      <c r="BA14" s="82"/>
+      <c r="BB14" s="82"/>
+      <c r="BC14" s="83"/>
       <c r="BD14" s="44"/>
       <c r="BE14" s="44"/>
       <c r="BF14" s="44"/>
@@ -2808,7 +2848,7 @@
         <v>40</v>
       </c>
       <c r="D17" s="27">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E17" s="56">
         <f>F16+1</f>
@@ -2889,7 +2929,7 @@
         <v>40</v>
       </c>
       <c r="D18" s="27">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E18" s="56">
         <f>F17+1</f>
@@ -3113,18 +3153,21 @@
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="48"/>
-      <c r="B21" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="32"/>
+      <c r="B21" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="32">
+        <v>1</v>
+      </c>
       <c r="E21" s="57">
-        <f>E9+15</f>
-        <v>44843</v>
+        <v>44934</v>
       </c>
       <c r="F21" s="57">
         <f>E21+5</f>
-        <v>44848</v>
+        <v>44939</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17">
@@ -3191,22 +3234,25 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="48"/>
       <c r="B22" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="32"/>
+        <v>45</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="32">
+        <v>1</v>
+      </c>
       <c r="E22" s="57">
-        <f>F21+1</f>
-        <v>44849</v>
+        <v>44934</v>
       </c>
       <c r="F22" s="57">
-        <f>E22+4</f>
-        <v>44853</v>
+        <f>E22+5</f>
+        <v>44939</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
@@ -3268,22 +3314,26 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="48"/>
       <c r="B23" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="32"/>
+        <v>49</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="32">
+        <v>0.75</v>
+      </c>
       <c r="E23" s="57">
-        <f>E22+5</f>
-        <v>44854</v>
+        <f>F22+1</f>
+        <v>44940</v>
       </c>
       <c r="F23" s="57">
-        <f>E23+5</f>
-        <v>44859</v>
+        <f>E23+6</f>
+        <v>44946</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
@@ -3345,22 +3395,26 @@
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="48"/>
       <c r="B24" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="32">
         <v>1</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="32"/>
       <c r="E24" s="57">
-        <f>F23+1</f>
-        <v>44860</v>
+        <f>F22+1</f>
+        <v>44940</v>
       </c>
       <c r="F24" s="57">
-        <f>E24+4</f>
-        <v>44864</v>
+        <f>E24+6</f>
+        <v>44946</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
@@ -3421,24 +3475,25 @@
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="48"/>
-      <c r="B25" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="32"/>
+      <c r="B25" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="32">
+        <v>1</v>
+      </c>
       <c r="E25" s="57">
-        <f>E23</f>
-        <v>44854</v>
+        <f>F22+1</f>
+        <v>44940</v>
       </c>
       <c r="F25" s="57">
-        <f>E25+4</f>
-        <v>44858</v>
+        <f>E25+6</f>
+        <v>44946</v>
       </c>
       <c r="G25" s="17"/>
-      <c r="H25" s="17">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
+      <c r="H25" s="17"/>
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
       <c r="K25" s="44"/>
@@ -3497,20 +3552,28 @@
       <c r="BL25" s="44"/>
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="36"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="32">
+        <v>1</v>
+      </c>
+      <c r="E26" s="57">
+        <f>E23</f>
+        <v>44940</v>
+      </c>
+      <c r="F26" s="57">
+        <f>E26+6</f>
+        <v>44946</v>
+      </c>
       <c r="G26" s="17"/>
-      <c r="H26" s="17" t="str">
+      <c r="H26" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="I26" s="44"/>
       <c r="J26" s="44"/>
@@ -3571,22 +3634,25 @@
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="48"/>
-      <c r="B27" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="58" t="s">
-        <v>15</v>
+      <c r="B27" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="E27" s="57">
+        <f>F26+1</f>
+        <v>44947</v>
+      </c>
+      <c r="F27" s="57">
+        <f>E27+6</f>
+        <v>44953</v>
       </c>
       <c r="G27" s="17"/>
-      <c r="H27" s="17" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H27" s="17"/>
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
       <c r="K27" s="44"/>
@@ -3645,23 +3711,28 @@
       <c r="BL27" s="44"/>
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="48"/>
-      <c r="B28" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="58" t="s">
-        <v>15</v>
+      <c r="A28" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="E28" s="57">
+        <f>F26+1</f>
+        <v>44947</v>
+      </c>
+      <c r="F28" s="57">
+        <f>E28+6</f>
+        <v>44953</v>
       </c>
       <c r="G28" s="17"/>
-      <c r="H28" s="17" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H28" s="17"/>
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
       <c r="K28" s="44"/>
@@ -3720,22 +3791,20 @@
       <c r="BL28" s="44"/>
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="48"/>
-      <c r="B29" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="58" t="s">
-        <v>15</v>
-      </c>
+      <c r="A29" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="66"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="17" t="e">
+      <c r="H29" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
@@ -3797,7 +3866,7 @@
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="48"/>
       <c r="B30" s="72" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" s="67"/>
       <c r="D30" s="37"/>
@@ -3872,7 +3941,7 @@
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="48"/>
       <c r="B31" s="72" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C31" s="67"/>
       <c r="D31" s="37"/>
@@ -3945,18 +4014,22 @@
       <c r="BL31" s="44"/>
     </row>
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="73"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="67"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="58" t="s">
+        <v>15</v>
+      </c>
       <c r="G32" s="17"/>
-      <c r="H32" s="17" t="str">
+      <c r="H32" s="17" t="e">
         <f t="shared" si="6"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I32" s="44"/>
       <c r="J32" s="44"/>
@@ -4016,104 +4089,325 @@
       <c r="BL32" s="44"/>
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43" t="str">
+      <c r="A33" s="48"/>
+      <c r="B33" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="67"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="44"/>
+      <c r="AA33" s="44"/>
+      <c r="AB33" s="44"/>
+      <c r="AC33" s="44"/>
+      <c r="AD33" s="44"/>
+      <c r="AE33" s="44"/>
+      <c r="AF33" s="44"/>
+      <c r="AG33" s="44"/>
+      <c r="AH33" s="44"/>
+      <c r="AI33" s="44"/>
+      <c r="AJ33" s="44"/>
+      <c r="AK33" s="44"/>
+      <c r="AL33" s="44"/>
+      <c r="AM33" s="44"/>
+      <c r="AN33" s="44"/>
+      <c r="AO33" s="44"/>
+      <c r="AP33" s="44"/>
+      <c r="AQ33" s="44"/>
+      <c r="AR33" s="44"/>
+      <c r="AS33" s="44"/>
+      <c r="AT33" s="44"/>
+      <c r="AU33" s="44"/>
+      <c r="AV33" s="44"/>
+      <c r="AW33" s="44"/>
+      <c r="AX33" s="44"/>
+      <c r="AY33" s="44"/>
+      <c r="AZ33" s="44"/>
+      <c r="BA33" s="44"/>
+      <c r="BB33" s="44"/>
+      <c r="BC33" s="44"/>
+      <c r="BD33" s="44"/>
+      <c r="BE33" s="44"/>
+      <c r="BF33" s="44"/>
+      <c r="BG33" s="44"/>
+      <c r="BH33" s="44"/>
+      <c r="BI33" s="44"/>
+      <c r="BJ33" s="44"/>
+      <c r="BK33" s="44"/>
+      <c r="BL33" s="44"/>
+    </row>
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="48"/>
+      <c r="B34" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="67"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="44"/>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="44"/>
+      <c r="Z34" s="44"/>
+      <c r="AA34" s="44"/>
+      <c r="AB34" s="44"/>
+      <c r="AC34" s="44"/>
+      <c r="AD34" s="44"/>
+      <c r="AE34" s="44"/>
+      <c r="AF34" s="44"/>
+      <c r="AG34" s="44"/>
+      <c r="AH34" s="44"/>
+      <c r="AI34" s="44"/>
+      <c r="AJ34" s="44"/>
+      <c r="AK34" s="44"/>
+      <c r="AL34" s="44"/>
+      <c r="AM34" s="44"/>
+      <c r="AN34" s="44"/>
+      <c r="AO34" s="44"/>
+      <c r="AP34" s="44"/>
+      <c r="AQ34" s="44"/>
+      <c r="AR34" s="44"/>
+      <c r="AS34" s="44"/>
+      <c r="AT34" s="44"/>
+      <c r="AU34" s="44"/>
+      <c r="AV34" s="44"/>
+      <c r="AW34" s="44"/>
+      <c r="AX34" s="44"/>
+      <c r="AY34" s="44"/>
+      <c r="AZ34" s="44"/>
+      <c r="BA34" s="44"/>
+      <c r="BB34" s="44"/>
+      <c r="BC34" s="44"/>
+      <c r="BD34" s="44"/>
+      <c r="BE34" s="44"/>
+      <c r="BF34" s="44"/>
+      <c r="BG34" s="44"/>
+      <c r="BH34" s="44"/>
+      <c r="BI34" s="44"/>
+      <c r="BJ34" s="44"/>
+      <c r="BK34" s="44"/>
+      <c r="BL34" s="44"/>
+    </row>
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="73"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="46"/>
-      <c r="AA33" s="46"/>
-      <c r="AB33" s="46"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="46"/>
-      <c r="AE33" s="46"/>
-      <c r="AF33" s="46"/>
-      <c r="AG33" s="46"/>
-      <c r="AH33" s="46"/>
-      <c r="AI33" s="46"/>
-      <c r="AJ33" s="46"/>
-      <c r="AK33" s="46"/>
-      <c r="AL33" s="46"/>
-      <c r="AM33" s="46"/>
-      <c r="AN33" s="46"/>
-      <c r="AO33" s="46"/>
-      <c r="AP33" s="46"/>
-      <c r="AQ33" s="46"/>
-      <c r="AR33" s="46"/>
-      <c r="AS33" s="46"/>
-      <c r="AT33" s="46"/>
-      <c r="AU33" s="46"/>
-      <c r="AV33" s="46"/>
-      <c r="AW33" s="46"/>
-      <c r="AX33" s="46"/>
-      <c r="AY33" s="46"/>
-      <c r="AZ33" s="46"/>
-      <c r="BA33" s="46"/>
-      <c r="BB33" s="46"/>
-      <c r="BC33" s="46"/>
-      <c r="BD33" s="46"/>
-      <c r="BE33" s="46"/>
-      <c r="BF33" s="46"/>
-      <c r="BG33" s="46"/>
-      <c r="BH33" s="46"/>
-      <c r="BI33" s="46"/>
-      <c r="BJ33" s="46"/>
-      <c r="BK33" s="46"/>
-      <c r="BL33" s="46"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="44"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="44"/>
+      <c r="Z35" s="44"/>
+      <c r="AA35" s="44"/>
+      <c r="AB35" s="44"/>
+      <c r="AC35" s="44"/>
+      <c r="AD35" s="44"/>
+      <c r="AE35" s="44"/>
+      <c r="AF35" s="44"/>
+      <c r="AG35" s="44"/>
+      <c r="AH35" s="44"/>
+      <c r="AI35" s="44"/>
+      <c r="AJ35" s="44"/>
+      <c r="AK35" s="44"/>
+      <c r="AL35" s="44"/>
+      <c r="AM35" s="44"/>
+      <c r="AN35" s="44"/>
+      <c r="AO35" s="44"/>
+      <c r="AP35" s="44"/>
+      <c r="AQ35" s="44"/>
+      <c r="AR35" s="44"/>
+      <c r="AS35" s="44"/>
+      <c r="AT35" s="44"/>
+      <c r="AU35" s="44"/>
+      <c r="AV35" s="44"/>
+      <c r="AW35" s="44"/>
+      <c r="AX35" s="44"/>
+      <c r="AY35" s="44"/>
+      <c r="AZ35" s="44"/>
+      <c r="BA35" s="44"/>
+      <c r="BB35" s="44"/>
+      <c r="BC35" s="44"/>
+      <c r="BD35" s="44"/>
+      <c r="BE35" s="44"/>
+      <c r="BF35" s="44"/>
+      <c r="BG35" s="44"/>
+      <c r="BH35" s="44"/>
+      <c r="BI35" s="44"/>
+      <c r="BJ35" s="44"/>
+      <c r="BK35" s="44"/>
+      <c r="BL35" s="44"/>
     </row>
-    <row r="34" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G34" s="6"/>
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="39"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="46"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="46"/>
+      <c r="Y36" s="46"/>
+      <c r="Z36" s="46"/>
+      <c r="AA36" s="46"/>
+      <c r="AB36" s="46"/>
+      <c r="AC36" s="46"/>
+      <c r="AD36" s="46"/>
+      <c r="AE36" s="46"/>
+      <c r="AF36" s="46"/>
+      <c r="AG36" s="46"/>
+      <c r="AH36" s="46"/>
+      <c r="AI36" s="46"/>
+      <c r="AJ36" s="46"/>
+      <c r="AK36" s="46"/>
+      <c r="AL36" s="46"/>
+      <c r="AM36" s="46"/>
+      <c r="AN36" s="46"/>
+      <c r="AO36" s="46"/>
+      <c r="AP36" s="46"/>
+      <c r="AQ36" s="46"/>
+      <c r="AR36" s="46"/>
+      <c r="AS36" s="46"/>
+      <c r="AT36" s="46"/>
+      <c r="AU36" s="46"/>
+      <c r="AV36" s="46"/>
+      <c r="AW36" s="46"/>
+      <c r="AX36" s="46"/>
+      <c r="AY36" s="46"/>
+      <c r="AZ36" s="46"/>
+      <c r="BA36" s="46"/>
+      <c r="BB36" s="46"/>
+      <c r="BC36" s="46"/>
+      <c r="BD36" s="46"/>
+      <c r="BE36" s="46"/>
+      <c r="BF36" s="46"/>
+      <c r="BG36" s="46"/>
+      <c r="BH36" s="46"/>
+      <c r="BI36" s="46"/>
+      <c r="BJ36" s="46"/>
+      <c r="BK36" s="46"/>
+      <c r="BL36" s="46"/>
     </row>
-    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C35" s="14"/>
-      <c r="F35" s="50"/>
+    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G37" s="6"/>
     </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C36" s="15"/>
+    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C38" s="14"/>
+      <c r="F38" s="50"/>
+    </row>
+    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C39" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
     <mergeCell ref="AW14:BC14"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D33">
+  <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4127,12 +4421,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL13 I15:BL33 I14:AW14 BD14:BL14">
+  <conditionalFormatting sqref="I5:BL13 I15:BL36 I14:AW14 BD14:BL14">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL13 I15:BL33 I14:AW14 BD14:BL14">
+  <conditionalFormatting sqref="I7:BL13 I15:BL36 I14:AW14 BD14:BL14">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4140,7 +4434,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="E4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
@@ -4151,9 +4445,6 @@
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="F22:F23 E23" formula="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -4170,7 +4461,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D33</xm:sqref>
+          <xm:sqref>D7:D36</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Gantt Chart Rosen A.xlsx
+++ b/Gantt Chart Rosen A.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC05779-3730-4634-B494-7FB3DAA19305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFF4420-7D31-4BFC-ABBE-242C221A7FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>Task 3</t>
   </si>
@@ -252,10 +252,22 @@
     <t>E</t>
   </si>
   <si>
-    <t>Task4: Extracting features and training AI</t>
-  </si>
-  <si>
     <t>Orvin,Ryan and Qingyan</t>
+  </si>
+  <si>
+    <t>Task3: Extracting features and training AI</t>
+  </si>
+  <si>
+    <t>Task4: Save uploaded image and videos from front-end locally in back end</t>
+  </si>
+  <si>
+    <t>Task4: Preparing final result page for the classified images</t>
+  </si>
+  <si>
+    <t>Task4: Database finalization to store classified image</t>
+  </si>
+  <si>
+    <t>Task4: Finalization in client experience (might need to do more due to change in structure)</t>
   </si>
 </sst>
 </file>
@@ -889,6 +901,18 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -903,18 +927,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1426,17 +1438,17 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL39"/>
+  <dimension ref="A1:BL43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="96" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <pane ySplit="6" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="48" customWidth="1"/>
-    <col min="2" max="2" width="33.265625" customWidth="1"/>
+    <col min="2" max="2" width="39.86328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.46484375" style="5" customWidth="1"/>
@@ -1473,106 +1485,106 @@
         <v>26</v>
       </c>
       <c r="B3" s="54"/>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="89">
+      <c r="D3" s="89"/>
+      <c r="E3" s="84">
         <v>44828</v>
       </c>
-      <c r="F3" s="89"/>
+      <c r="F3" s="84"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="85"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="86">
+      <c r="I4" s="81">
         <f>I5</f>
         <v>44823</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="86">
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="81">
         <f>P5</f>
         <v>44830</v>
       </c>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="86">
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="81">
         <f>W5</f>
         <v>44837</v>
       </c>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="86">
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="83"/>
+      <c r="AD4" s="81">
         <f>AD5</f>
         <v>44844</v>
       </c>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="86">
+      <c r="AE4" s="82"/>
+      <c r="AF4" s="82"/>
+      <c r="AG4" s="82"/>
+      <c r="AH4" s="82"/>
+      <c r="AI4" s="82"/>
+      <c r="AJ4" s="83"/>
+      <c r="AK4" s="81">
         <f>AK5</f>
         <v>44851</v>
       </c>
-      <c r="AL4" s="87"/>
-      <c r="AM4" s="87"/>
-      <c r="AN4" s="87"/>
-      <c r="AO4" s="87"/>
-      <c r="AP4" s="87"/>
-      <c r="AQ4" s="88"/>
-      <c r="AR4" s="86">
+      <c r="AL4" s="82"/>
+      <c r="AM4" s="82"/>
+      <c r="AN4" s="82"/>
+      <c r="AO4" s="82"/>
+      <c r="AP4" s="82"/>
+      <c r="AQ4" s="83"/>
+      <c r="AR4" s="81">
         <f>AR5</f>
         <v>44858</v>
       </c>
-      <c r="AS4" s="87"/>
-      <c r="AT4" s="87"/>
-      <c r="AU4" s="87"/>
-      <c r="AV4" s="87"/>
-      <c r="AW4" s="87"/>
-      <c r="AX4" s="88"/>
-      <c r="AY4" s="86">
+      <c r="AS4" s="82"/>
+      <c r="AT4" s="82"/>
+      <c r="AU4" s="82"/>
+      <c r="AV4" s="82"/>
+      <c r="AW4" s="82"/>
+      <c r="AX4" s="83"/>
+      <c r="AY4" s="81">
         <f>AY5</f>
         <v>44865</v>
       </c>
-      <c r="AZ4" s="87"/>
-      <c r="BA4" s="87"/>
-      <c r="BB4" s="87"/>
-      <c r="BC4" s="87"/>
-      <c r="BD4" s="87"/>
-      <c r="BE4" s="88"/>
-      <c r="BF4" s="86">
+      <c r="AZ4" s="82"/>
+      <c r="BA4" s="82"/>
+      <c r="BB4" s="82"/>
+      <c r="BC4" s="82"/>
+      <c r="BD4" s="82"/>
+      <c r="BE4" s="83"/>
+      <c r="BF4" s="81">
         <f>BF5</f>
         <v>44872</v>
       </c>
-      <c r="BG4" s="87"/>
-      <c r="BH4" s="87"/>
-      <c r="BI4" s="87"/>
-      <c r="BJ4" s="87"/>
-      <c r="BK4" s="87"/>
-      <c r="BL4" s="88"/>
+      <c r="BG4" s="82"/>
+      <c r="BH4" s="82"/>
+      <c r="BI4" s="82"/>
+      <c r="BJ4" s="82"/>
+      <c r="BK4" s="82"/>
+      <c r="BL4" s="83"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="49" t="s">
@@ -2137,7 +2149,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H36" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H40" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="44"/>
@@ -2662,13 +2674,13 @@
       <c r="AT14" s="44"/>
       <c r="AU14" s="44"/>
       <c r="AV14" s="44"/>
-      <c r="AW14" s="81"/>
-      <c r="AX14" s="82"/>
-      <c r="AY14" s="82"/>
-      <c r="AZ14" s="82"/>
-      <c r="BA14" s="82"/>
-      <c r="BB14" s="82"/>
-      <c r="BC14" s="83"/>
+      <c r="AW14" s="85"/>
+      <c r="AX14" s="86"/>
+      <c r="AY14" s="86"/>
+      <c r="AZ14" s="86"/>
+      <c r="BA14" s="86"/>
+      <c r="BB14" s="86"/>
+      <c r="BC14" s="87"/>
       <c r="BD14" s="44"/>
       <c r="BE14" s="44"/>
       <c r="BF14" s="44"/>
@@ -3320,14 +3332,14 @@
         <v>53</v>
       </c>
       <c r="D23" s="32">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E23" s="57">
         <f>F22+1</f>
         <v>44940</v>
       </c>
       <c r="F23" s="57">
-        <f>E23+6</f>
+        <f t="shared" ref="F23:F28" si="7">E23+6</f>
         <v>44946</v>
       </c>
       <c r="G23" s="17"/>
@@ -3408,7 +3420,7 @@
         <v>44940</v>
       </c>
       <c r="F24" s="57">
-        <f>E24+6</f>
+        <f t="shared" si="7"/>
         <v>44946</v>
       </c>
       <c r="G24" s="17"/>
@@ -3489,7 +3501,7 @@
         <v>44940</v>
       </c>
       <c r="F25" s="57">
-        <f>E25+6</f>
+        <f t="shared" si="7"/>
         <v>44946</v>
       </c>
       <c r="G25" s="17"/>
@@ -3567,7 +3579,7 @@
         <v>44940</v>
       </c>
       <c r="F26" s="57">
-        <f>E26+6</f>
+        <f t="shared" si="7"/>
         <v>44946</v>
       </c>
       <c r="G26" s="17"/>
@@ -3641,14 +3653,14 @@
         <v>53</v>
       </c>
       <c r="D27" s="32">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E27" s="57">
         <f>F26+1</f>
         <v>44947</v>
       </c>
       <c r="F27" s="57">
-        <f>E27+6</f>
+        <f t="shared" si="7"/>
         <v>44953</v>
       </c>
       <c r="G27" s="17"/>
@@ -3715,20 +3727,20 @@
         <v>57</v>
       </c>
       <c r="B28" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="65" t="s">
-        <v>59</v>
-      </c>
       <c r="D28" s="32">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E28" s="57">
         <f>F26+1</f>
         <v>44947</v>
       </c>
       <c r="F28" s="57">
-        <f>E28+6</f>
+        <f t="shared" si="7"/>
         <v>44953</v>
       </c>
       <c r="G28" s="17"/>
@@ -3791,21 +3803,26 @@
       <c r="BL28" s="44"/>
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="57">
+        <f>E28+1</f>
+        <v>44948</v>
+      </c>
+      <c r="F29" s="57">
+        <f>E29+6</f>
+        <v>44954</v>
+      </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H29" s="17"/>
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
       <c r="K29" s="44"/>
@@ -3865,22 +3882,25 @@
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="48"/>
-      <c r="B30" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="67"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="58" t="s">
-        <v>15</v>
+      <c r="B30" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="57">
+        <f>E28+1</f>
+        <v>44948</v>
+      </c>
+      <c r="F30" s="57">
+        <f t="shared" ref="F30:F32" si="8">E30+6</f>
+        <v>44954</v>
       </c>
       <c r="G30" s="17"/>
-      <c r="H30" s="17" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H30" s="17"/>
       <c r="I30" s="44"/>
       <c r="J30" s="44"/>
       <c r="K30" s="44"/>
@@ -3940,22 +3960,25 @@
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="48"/>
-      <c r="B31" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="58" t="s">
-        <v>15</v>
+      <c r="B31" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="E31" s="57">
+        <f>E28+1</f>
+        <v>44948</v>
+      </c>
+      <c r="F31" s="57">
+        <f t="shared" si="8"/>
+        <v>44954</v>
       </c>
       <c r="G31" s="17"/>
-      <c r="H31" s="17" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H31" s="17"/>
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
       <c r="K31" s="44"/>
@@ -4015,22 +4038,25 @@
     </row>
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="48"/>
-      <c r="B32" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="58" t="s">
-        <v>15</v>
+      <c r="B32" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="57">
+        <f>E28+1</f>
+        <v>44948</v>
+      </c>
+      <c r="F32" s="57">
+        <f t="shared" si="8"/>
+        <v>44954</v>
       </c>
       <c r="G32" s="17"/>
-      <c r="H32" s="17" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H32" s="17"/>
       <c r="I32" s="44"/>
       <c r="J32" s="44"/>
       <c r="K32" s="44"/>
@@ -4089,22 +4115,20 @@
       <c r="BL32" s="44"/>
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="48"/>
-      <c r="B33" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="58" t="s">
-        <v>15</v>
-      </c>
+      <c r="A33" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="66"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="36"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="17" t="e">
+      <c r="H33" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I33" s="44"/>
       <c r="J33" s="44"/>
@@ -4166,7 +4190,7 @@
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="48"/>
       <c r="B34" s="72" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" s="67"/>
       <c r="D34" s="37"/>
@@ -4239,18 +4263,22 @@
       <c r="BL34" s="44"/>
     </row>
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="73"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="67"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="58" t="s">
+        <v>15</v>
+      </c>
       <c r="G35" s="17"/>
-      <c r="H35" s="17" t="str">
+      <c r="H35" s="17" t="e">
         <f t="shared" si="6"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I35" s="44"/>
       <c r="J35" s="44"/>
@@ -4310,104 +4338,400 @@
       <c r="BL35" s="44"/>
     </row>
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43" t="str">
+      <c r="A36" s="48"/>
+      <c r="B36" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="67"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="44"/>
+      <c r="Z36" s="44"/>
+      <c r="AA36" s="44"/>
+      <c r="AB36" s="44"/>
+      <c r="AC36" s="44"/>
+      <c r="AD36" s="44"/>
+      <c r="AE36" s="44"/>
+      <c r="AF36" s="44"/>
+      <c r="AG36" s="44"/>
+      <c r="AH36" s="44"/>
+      <c r="AI36" s="44"/>
+      <c r="AJ36" s="44"/>
+      <c r="AK36" s="44"/>
+      <c r="AL36" s="44"/>
+      <c r="AM36" s="44"/>
+      <c r="AN36" s="44"/>
+      <c r="AO36" s="44"/>
+      <c r="AP36" s="44"/>
+      <c r="AQ36" s="44"/>
+      <c r="AR36" s="44"/>
+      <c r="AS36" s="44"/>
+      <c r="AT36" s="44"/>
+      <c r="AU36" s="44"/>
+      <c r="AV36" s="44"/>
+      <c r="AW36" s="44"/>
+      <c r="AX36" s="44"/>
+      <c r="AY36" s="44"/>
+      <c r="AZ36" s="44"/>
+      <c r="BA36" s="44"/>
+      <c r="BB36" s="44"/>
+      <c r="BC36" s="44"/>
+      <c r="BD36" s="44"/>
+      <c r="BE36" s="44"/>
+      <c r="BF36" s="44"/>
+      <c r="BG36" s="44"/>
+      <c r="BH36" s="44"/>
+      <c r="BI36" s="44"/>
+      <c r="BJ36" s="44"/>
+      <c r="BK36" s="44"/>
+      <c r="BL36" s="44"/>
+    </row>
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="48"/>
+      <c r="B37" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="67"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="44"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="44"/>
+      <c r="Y37" s="44"/>
+      <c r="Z37" s="44"/>
+      <c r="AA37" s="44"/>
+      <c r="AB37" s="44"/>
+      <c r="AC37" s="44"/>
+      <c r="AD37" s="44"/>
+      <c r="AE37" s="44"/>
+      <c r="AF37" s="44"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="44"/>
+      <c r="AI37" s="44"/>
+      <c r="AJ37" s="44"/>
+      <c r="AK37" s="44"/>
+      <c r="AL37" s="44"/>
+      <c r="AM37" s="44"/>
+      <c r="AN37" s="44"/>
+      <c r="AO37" s="44"/>
+      <c r="AP37" s="44"/>
+      <c r="AQ37" s="44"/>
+      <c r="AR37" s="44"/>
+      <c r="AS37" s="44"/>
+      <c r="AT37" s="44"/>
+      <c r="AU37" s="44"/>
+      <c r="AV37" s="44"/>
+      <c r="AW37" s="44"/>
+      <c r="AX37" s="44"/>
+      <c r="AY37" s="44"/>
+      <c r="AZ37" s="44"/>
+      <c r="BA37" s="44"/>
+      <c r="BB37" s="44"/>
+      <c r="BC37" s="44"/>
+      <c r="BD37" s="44"/>
+      <c r="BE37" s="44"/>
+      <c r="BF37" s="44"/>
+      <c r="BG37" s="44"/>
+      <c r="BH37" s="44"/>
+      <c r="BI37" s="44"/>
+      <c r="BJ37" s="44"/>
+      <c r="BK37" s="44"/>
+      <c r="BL37" s="44"/>
+    </row>
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="48"/>
+      <c r="B38" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="67"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="44"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="44"/>
+      <c r="X38" s="44"/>
+      <c r="Y38" s="44"/>
+      <c r="Z38" s="44"/>
+      <c r="AA38" s="44"/>
+      <c r="AB38" s="44"/>
+      <c r="AC38" s="44"/>
+      <c r="AD38" s="44"/>
+      <c r="AE38" s="44"/>
+      <c r="AF38" s="44"/>
+      <c r="AG38" s="44"/>
+      <c r="AH38" s="44"/>
+      <c r="AI38" s="44"/>
+      <c r="AJ38" s="44"/>
+      <c r="AK38" s="44"/>
+      <c r="AL38" s="44"/>
+      <c r="AM38" s="44"/>
+      <c r="AN38" s="44"/>
+      <c r="AO38" s="44"/>
+      <c r="AP38" s="44"/>
+      <c r="AQ38" s="44"/>
+      <c r="AR38" s="44"/>
+      <c r="AS38" s="44"/>
+      <c r="AT38" s="44"/>
+      <c r="AU38" s="44"/>
+      <c r="AV38" s="44"/>
+      <c r="AW38" s="44"/>
+      <c r="AX38" s="44"/>
+      <c r="AY38" s="44"/>
+      <c r="AZ38" s="44"/>
+      <c r="BA38" s="44"/>
+      <c r="BB38" s="44"/>
+      <c r="BC38" s="44"/>
+      <c r="BD38" s="44"/>
+      <c r="BE38" s="44"/>
+      <c r="BF38" s="44"/>
+      <c r="BG38" s="44"/>
+      <c r="BH38" s="44"/>
+      <c r="BI38" s="44"/>
+      <c r="BJ38" s="44"/>
+      <c r="BK38" s="44"/>
+      <c r="BL38" s="44"/>
+    </row>
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="73"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="46"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="46"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="46"/>
-      <c r="Y36" s="46"/>
-      <c r="Z36" s="46"/>
-      <c r="AA36" s="46"/>
-      <c r="AB36" s="46"/>
-      <c r="AC36" s="46"/>
-      <c r="AD36" s="46"/>
-      <c r="AE36" s="46"/>
-      <c r="AF36" s="46"/>
-      <c r="AG36" s="46"/>
-      <c r="AH36" s="46"/>
-      <c r="AI36" s="46"/>
-      <c r="AJ36" s="46"/>
-      <c r="AK36" s="46"/>
-      <c r="AL36" s="46"/>
-      <c r="AM36" s="46"/>
-      <c r="AN36" s="46"/>
-      <c r="AO36" s="46"/>
-      <c r="AP36" s="46"/>
-      <c r="AQ36" s="46"/>
-      <c r="AR36" s="46"/>
-      <c r="AS36" s="46"/>
-      <c r="AT36" s="46"/>
-      <c r="AU36" s="46"/>
-      <c r="AV36" s="46"/>
-      <c r="AW36" s="46"/>
-      <c r="AX36" s="46"/>
-      <c r="AY36" s="46"/>
-      <c r="AZ36" s="46"/>
-      <c r="BA36" s="46"/>
-      <c r="BB36" s="46"/>
-      <c r="BC36" s="46"/>
-      <c r="BD36" s="46"/>
-      <c r="BE36" s="46"/>
-      <c r="BF36" s="46"/>
-      <c r="BG36" s="46"/>
-      <c r="BH36" s="46"/>
-      <c r="BI36" s="46"/>
-      <c r="BJ36" s="46"/>
-      <c r="BK36" s="46"/>
-      <c r="BL36" s="46"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="44"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="44"/>
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AE39" s="44"/>
+      <c r="AF39" s="44"/>
+      <c r="AG39" s="44"/>
+      <c r="AH39" s="44"/>
+      <c r="AI39" s="44"/>
+      <c r="AJ39" s="44"/>
+      <c r="AK39" s="44"/>
+      <c r="AL39" s="44"/>
+      <c r="AM39" s="44"/>
+      <c r="AN39" s="44"/>
+      <c r="AO39" s="44"/>
+      <c r="AP39" s="44"/>
+      <c r="AQ39" s="44"/>
+      <c r="AR39" s="44"/>
+      <c r="AS39" s="44"/>
+      <c r="AT39" s="44"/>
+      <c r="AU39" s="44"/>
+      <c r="AV39" s="44"/>
+      <c r="AW39" s="44"/>
+      <c r="AX39" s="44"/>
+      <c r="AY39" s="44"/>
+      <c r="AZ39" s="44"/>
+      <c r="BA39" s="44"/>
+      <c r="BB39" s="44"/>
+      <c r="BC39" s="44"/>
+      <c r="BD39" s="44"/>
+      <c r="BE39" s="44"/>
+      <c r="BF39" s="44"/>
+      <c r="BG39" s="44"/>
+      <c r="BH39" s="44"/>
+      <c r="BI39" s="44"/>
+      <c r="BJ39" s="44"/>
+      <c r="BK39" s="44"/>
+      <c r="BL39" s="44"/>
     </row>
-    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G37" s="6"/>
+    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="39"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="46"/>
+      <c r="W40" s="46"/>
+      <c r="X40" s="46"/>
+      <c r="Y40" s="46"/>
+      <c r="Z40" s="46"/>
+      <c r="AA40" s="46"/>
+      <c r="AB40" s="46"/>
+      <c r="AC40" s="46"/>
+      <c r="AD40" s="46"/>
+      <c r="AE40" s="46"/>
+      <c r="AF40" s="46"/>
+      <c r="AG40" s="46"/>
+      <c r="AH40" s="46"/>
+      <c r="AI40" s="46"/>
+      <c r="AJ40" s="46"/>
+      <c r="AK40" s="46"/>
+      <c r="AL40" s="46"/>
+      <c r="AM40" s="46"/>
+      <c r="AN40" s="46"/>
+      <c r="AO40" s="46"/>
+      <c r="AP40" s="46"/>
+      <c r="AQ40" s="46"/>
+      <c r="AR40" s="46"/>
+      <c r="AS40" s="46"/>
+      <c r="AT40" s="46"/>
+      <c r="AU40" s="46"/>
+      <c r="AV40" s="46"/>
+      <c r="AW40" s="46"/>
+      <c r="AX40" s="46"/>
+      <c r="AY40" s="46"/>
+      <c r="AZ40" s="46"/>
+      <c r="BA40" s="46"/>
+      <c r="BB40" s="46"/>
+      <c r="BC40" s="46"/>
+      <c r="BD40" s="46"/>
+      <c r="BE40" s="46"/>
+      <c r="BF40" s="46"/>
+      <c r="BG40" s="46"/>
+      <c r="BH40" s="46"/>
+      <c r="BI40" s="46"/>
+      <c r="BJ40" s="46"/>
+      <c r="BK40" s="46"/>
+      <c r="BL40" s="46"/>
     </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="14"/>
-      <c r="F38" s="50"/>
+    <row r="41" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G41" s="6"/>
     </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C39" s="15"/>
+    <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C42" s="14"/>
+      <c r="F42" s="50"/>
+    </row>
+    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C43" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AW14:BC14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="AW14:BC14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D36">
+  <conditionalFormatting sqref="D7:D40">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4421,12 +4745,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL13 I15:BL36 I14:AW14 BD14:BL14">
+  <conditionalFormatting sqref="I5:BL13 I15:BL40 I14:AW14 BD14:BL14">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL13 I15:BL36 I14:AW14 BD14:BL14">
+  <conditionalFormatting sqref="I7:BL13 I15:BL40 I14:AW14 BD14:BL14">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4461,7 +4785,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D36</xm:sqref>
+          <xm:sqref>D7:D40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Gantt Chart Rosen A.xlsx
+++ b/Gantt Chart Rosen A.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFF4420-7D31-4BFC-ABBE-242C221A7FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009C3BED-F903-46F8-9BF5-1C2FC03681FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,12 +24,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
   <si>
     <t>Task 3</t>
   </si>
@@ -268,6 +279,15 @@
   </si>
   <si>
     <t>Task4: Finalization in client experience (might need to do more due to change in structure)</t>
+  </si>
+  <si>
+    <t>Task5: Run button to 1) Chop images and 2) Run deepimageSearch</t>
+  </si>
+  <si>
+    <t>Task5: Produce the results of similar images in result.html</t>
+  </si>
+  <si>
+    <t>Task5: Styling for uploadImage.html and uploadVideo.html</t>
   </si>
 </sst>
 </file>
@@ -901,6 +921,21 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -912,21 +947,6 @@
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1438,11 +1458,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL43"/>
+  <dimension ref="A1:BL46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="96" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1485,106 +1505,106 @@
         <v>26</v>
       </c>
       <c r="B3" s="54"/>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="84">
+      <c r="D3" s="85"/>
+      <c r="E3" s="89">
         <v>44828</v>
       </c>
-      <c r="F3" s="84"/>
+      <c r="F3" s="89"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="85"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="81">
+      <c r="I4" s="86">
         <f>I5</f>
         <v>44823</v>
       </c>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="81">
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="86">
         <f>P5</f>
         <v>44830</v>
       </c>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="81">
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="86">
         <f>W5</f>
         <v>44837</v>
       </c>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="83"/>
-      <c r="AD4" s="81">
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="86">
         <f>AD5</f>
         <v>44844</v>
       </c>
-      <c r="AE4" s="82"/>
-      <c r="AF4" s="82"/>
-      <c r="AG4" s="82"/>
-      <c r="AH4" s="82"/>
-      <c r="AI4" s="82"/>
-      <c r="AJ4" s="83"/>
-      <c r="AK4" s="81">
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="88"/>
+      <c r="AK4" s="86">
         <f>AK5</f>
         <v>44851</v>
       </c>
-      <c r="AL4" s="82"/>
-      <c r="AM4" s="82"/>
-      <c r="AN4" s="82"/>
-      <c r="AO4" s="82"/>
-      <c r="AP4" s="82"/>
-      <c r="AQ4" s="83"/>
-      <c r="AR4" s="81">
+      <c r="AL4" s="87"/>
+      <c r="AM4" s="87"/>
+      <c r="AN4" s="87"/>
+      <c r="AO4" s="87"/>
+      <c r="AP4" s="87"/>
+      <c r="AQ4" s="88"/>
+      <c r="AR4" s="86">
         <f>AR5</f>
         <v>44858</v>
       </c>
-      <c r="AS4" s="82"/>
-      <c r="AT4" s="82"/>
-      <c r="AU4" s="82"/>
-      <c r="AV4" s="82"/>
-      <c r="AW4" s="82"/>
-      <c r="AX4" s="83"/>
-      <c r="AY4" s="81">
+      <c r="AS4" s="87"/>
+      <c r="AT4" s="87"/>
+      <c r="AU4" s="87"/>
+      <c r="AV4" s="87"/>
+      <c r="AW4" s="87"/>
+      <c r="AX4" s="88"/>
+      <c r="AY4" s="86">
         <f>AY5</f>
         <v>44865</v>
       </c>
-      <c r="AZ4" s="82"/>
-      <c r="BA4" s="82"/>
-      <c r="BB4" s="82"/>
-      <c r="BC4" s="82"/>
-      <c r="BD4" s="82"/>
-      <c r="BE4" s="83"/>
-      <c r="BF4" s="81">
+      <c r="AZ4" s="87"/>
+      <c r="BA4" s="87"/>
+      <c r="BB4" s="87"/>
+      <c r="BC4" s="87"/>
+      <c r="BD4" s="87"/>
+      <c r="BE4" s="88"/>
+      <c r="BF4" s="86">
         <f>BF5</f>
         <v>44872</v>
       </c>
-      <c r="BG4" s="82"/>
-      <c r="BH4" s="82"/>
-      <c r="BI4" s="82"/>
-      <c r="BJ4" s="82"/>
-      <c r="BK4" s="82"/>
-      <c r="BL4" s="83"/>
+      <c r="BG4" s="87"/>
+      <c r="BH4" s="87"/>
+      <c r="BI4" s="87"/>
+      <c r="BJ4" s="87"/>
+      <c r="BK4" s="87"/>
+      <c r="BL4" s="88"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="49" t="s">
@@ -2149,7 +2169,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H40" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H43" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="44"/>
@@ -2674,13 +2694,13 @@
       <c r="AT14" s="44"/>
       <c r="AU14" s="44"/>
       <c r="AV14" s="44"/>
-      <c r="AW14" s="85"/>
-      <c r="AX14" s="86"/>
-      <c r="AY14" s="86"/>
-      <c r="AZ14" s="86"/>
-      <c r="BA14" s="86"/>
-      <c r="BB14" s="86"/>
-      <c r="BC14" s="87"/>
+      <c r="AW14" s="81"/>
+      <c r="AX14" s="82"/>
+      <c r="AY14" s="82"/>
+      <c r="AZ14" s="82"/>
+      <c r="BA14" s="82"/>
+      <c r="BB14" s="82"/>
+      <c r="BC14" s="83"/>
       <c r="BD14" s="44"/>
       <c r="BE14" s="44"/>
       <c r="BF14" s="44"/>
@@ -3811,15 +3831,15 @@
         <v>54</v>
       </c>
       <c r="D29" s="32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E29" s="57">
-        <f>E28+1</f>
-        <v>44948</v>
+        <f>F28+1</f>
+        <v>44954</v>
       </c>
       <c r="F29" s="57">
         <f>E29+6</f>
-        <v>44954</v>
+        <v>44960</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
@@ -3889,15 +3909,15 @@
         <v>55</v>
       </c>
       <c r="D30" s="32">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E30" s="57">
-        <f>E28+1</f>
-        <v>44948</v>
+        <f>F28+1</f>
+        <v>44954</v>
       </c>
       <c r="F30" s="57">
         <f t="shared" ref="F30:F32" si="8">E30+6</f>
-        <v>44954</v>
+        <v>44960</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
@@ -3967,15 +3987,15 @@
         <v>47</v>
       </c>
       <c r="D31" s="32">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E31" s="57">
-        <f>E28+1</f>
-        <v>44948</v>
+        <f>F28+1</f>
+        <v>44954</v>
       </c>
       <c r="F31" s="57">
         <f t="shared" si="8"/>
-        <v>44954</v>
+        <v>44960</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
@@ -4048,12 +4068,12 @@
         <v>0.5</v>
       </c>
       <c r="E32" s="57">
-        <f>E28+1</f>
-        <v>44948</v>
+        <f>F28+1</f>
+        <v>44954</v>
       </c>
       <c r="F32" s="57">
         <f t="shared" si="8"/>
-        <v>44954</v>
+        <v>44960</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
@@ -4115,21 +4135,22 @@
       <c r="BL32" s="44"/>
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="36"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="65"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="57">
+        <f>F32+1</f>
+        <v>44961</v>
+      </c>
+      <c r="F33" s="57">
+        <f>E33+6</f>
+        <v>44967</v>
+      </c>
       <c r="G33" s="17"/>
-      <c r="H33" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H33" s="17"/>
       <c r="I33" s="44"/>
       <c r="J33" s="44"/>
       <c r="K33" s="44"/>
@@ -4189,22 +4210,21 @@
     </row>
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="48"/>
-      <c r="B34" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="67"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="58" t="s">
-        <v>15</v>
+      <c r="B34" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="65"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="57">
+        <f>F32+1</f>
+        <v>44961</v>
+      </c>
+      <c r="F34" s="57">
+        <f>E34+6</f>
+        <v>44967</v>
       </c>
       <c r="G34" s="17"/>
-      <c r="H34" s="17" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H34" s="17"/>
       <c r="I34" s="44"/>
       <c r="J34" s="44"/>
       <c r="K34" s="44"/>
@@ -4264,22 +4284,21 @@
     </row>
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="48"/>
-      <c r="B35" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="58" t="s">
-        <v>15</v>
+      <c r="B35" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="65"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="57">
+        <f>F32+1</f>
+        <v>44961</v>
+      </c>
+      <c r="F35" s="57">
+        <f>E35+6</f>
+        <v>44967</v>
       </c>
       <c r="G35" s="17"/>
-      <c r="H35" s="17" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H35" s="17"/>
       <c r="I35" s="44"/>
       <c r="J35" s="44"/>
       <c r="K35" s="44"/>
@@ -4338,22 +4357,20 @@
       <c r="BL35" s="44"/>
     </row>
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="48"/>
-      <c r="B36" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="67"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="58" t="s">
-        <v>15</v>
-      </c>
+      <c r="A36" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="66"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="36"/>
       <c r="G36" s="17"/>
-      <c r="H36" s="17" t="e">
+      <c r="H36" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I36" s="44"/>
       <c r="J36" s="44"/>
@@ -4415,7 +4432,7 @@
     <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="48"/>
       <c r="B37" s="72" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37" s="67"/>
       <c r="D37" s="37"/>
@@ -4490,7 +4507,7 @@
     <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="48"/>
       <c r="B38" s="72" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C38" s="67"/>
       <c r="D38" s="37"/>
@@ -4563,18 +4580,22 @@
       <c r="BL38" s="44"/>
     </row>
     <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="73"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="67"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="58" t="s">
+        <v>15</v>
+      </c>
       <c r="G39" s="17"/>
-      <c r="H39" s="17" t="str">
+      <c r="H39" s="17" t="e">
         <f t="shared" si="6"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I39" s="44"/>
       <c r="J39" s="44"/>
@@ -4634,104 +4655,325 @@
       <c r="BL39" s="44"/>
     </row>
     <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43" t="str">
+      <c r="A40" s="48"/>
+      <c r="B40" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="67"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="44"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="44"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="44"/>
+      <c r="Y40" s="44"/>
+      <c r="Z40" s="44"/>
+      <c r="AA40" s="44"/>
+      <c r="AB40" s="44"/>
+      <c r="AC40" s="44"/>
+      <c r="AD40" s="44"/>
+      <c r="AE40" s="44"/>
+      <c r="AF40" s="44"/>
+      <c r="AG40" s="44"/>
+      <c r="AH40" s="44"/>
+      <c r="AI40" s="44"/>
+      <c r="AJ40" s="44"/>
+      <c r="AK40" s="44"/>
+      <c r="AL40" s="44"/>
+      <c r="AM40" s="44"/>
+      <c r="AN40" s="44"/>
+      <c r="AO40" s="44"/>
+      <c r="AP40" s="44"/>
+      <c r="AQ40" s="44"/>
+      <c r="AR40" s="44"/>
+      <c r="AS40" s="44"/>
+      <c r="AT40" s="44"/>
+      <c r="AU40" s="44"/>
+      <c r="AV40" s="44"/>
+      <c r="AW40" s="44"/>
+      <c r="AX40" s="44"/>
+      <c r="AY40" s="44"/>
+      <c r="AZ40" s="44"/>
+      <c r="BA40" s="44"/>
+      <c r="BB40" s="44"/>
+      <c r="BC40" s="44"/>
+      <c r="BD40" s="44"/>
+      <c r="BE40" s="44"/>
+      <c r="BF40" s="44"/>
+      <c r="BG40" s="44"/>
+      <c r="BH40" s="44"/>
+      <c r="BI40" s="44"/>
+      <c r="BJ40" s="44"/>
+      <c r="BK40" s="44"/>
+      <c r="BL40" s="44"/>
+    </row>
+    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="48"/>
+      <c r="B41" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="67"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="44"/>
+      <c r="W41" s="44"/>
+      <c r="X41" s="44"/>
+      <c r="Y41" s="44"/>
+      <c r="Z41" s="44"/>
+      <c r="AA41" s="44"/>
+      <c r="AB41" s="44"/>
+      <c r="AC41" s="44"/>
+      <c r="AD41" s="44"/>
+      <c r="AE41" s="44"/>
+      <c r="AF41" s="44"/>
+      <c r="AG41" s="44"/>
+      <c r="AH41" s="44"/>
+      <c r="AI41" s="44"/>
+      <c r="AJ41" s="44"/>
+      <c r="AK41" s="44"/>
+      <c r="AL41" s="44"/>
+      <c r="AM41" s="44"/>
+      <c r="AN41" s="44"/>
+      <c r="AO41" s="44"/>
+      <c r="AP41" s="44"/>
+      <c r="AQ41" s="44"/>
+      <c r="AR41" s="44"/>
+      <c r="AS41" s="44"/>
+      <c r="AT41" s="44"/>
+      <c r="AU41" s="44"/>
+      <c r="AV41" s="44"/>
+      <c r="AW41" s="44"/>
+      <c r="AX41" s="44"/>
+      <c r="AY41" s="44"/>
+      <c r="AZ41" s="44"/>
+      <c r="BA41" s="44"/>
+      <c r="BB41" s="44"/>
+      <c r="BC41" s="44"/>
+      <c r="BD41" s="44"/>
+      <c r="BE41" s="44"/>
+      <c r="BF41" s="44"/>
+      <c r="BG41" s="44"/>
+      <c r="BH41" s="44"/>
+      <c r="BI41" s="44"/>
+      <c r="BJ41" s="44"/>
+      <c r="BK41" s="44"/>
+      <c r="BL41" s="44"/>
+    </row>
+    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="73"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="46"/>
-      <c r="S40" s="46"/>
-      <c r="T40" s="46"/>
-      <c r="U40" s="46"/>
-      <c r="V40" s="46"/>
-      <c r="W40" s="46"/>
-      <c r="X40" s="46"/>
-      <c r="Y40" s="46"/>
-      <c r="Z40" s="46"/>
-      <c r="AA40" s="46"/>
-      <c r="AB40" s="46"/>
-      <c r="AC40" s="46"/>
-      <c r="AD40" s="46"/>
-      <c r="AE40" s="46"/>
-      <c r="AF40" s="46"/>
-      <c r="AG40" s="46"/>
-      <c r="AH40" s="46"/>
-      <c r="AI40" s="46"/>
-      <c r="AJ40" s="46"/>
-      <c r="AK40" s="46"/>
-      <c r="AL40" s="46"/>
-      <c r="AM40" s="46"/>
-      <c r="AN40" s="46"/>
-      <c r="AO40" s="46"/>
-      <c r="AP40" s="46"/>
-      <c r="AQ40" s="46"/>
-      <c r="AR40" s="46"/>
-      <c r="AS40" s="46"/>
-      <c r="AT40" s="46"/>
-      <c r="AU40" s="46"/>
-      <c r="AV40" s="46"/>
-      <c r="AW40" s="46"/>
-      <c r="AX40" s="46"/>
-      <c r="AY40" s="46"/>
-      <c r="AZ40" s="46"/>
-      <c r="BA40" s="46"/>
-      <c r="BB40" s="46"/>
-      <c r="BC40" s="46"/>
-      <c r="BD40" s="46"/>
-      <c r="BE40" s="46"/>
-      <c r="BF40" s="46"/>
-      <c r="BG40" s="46"/>
-      <c r="BH40" s="46"/>
-      <c r="BI40" s="46"/>
-      <c r="BJ40" s="46"/>
-      <c r="BK40" s="46"/>
-      <c r="BL40" s="46"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="44"/>
+      <c r="U42" s="44"/>
+      <c r="V42" s="44"/>
+      <c r="W42" s="44"/>
+      <c r="X42" s="44"/>
+      <c r="Y42" s="44"/>
+      <c r="Z42" s="44"/>
+      <c r="AA42" s="44"/>
+      <c r="AB42" s="44"/>
+      <c r="AC42" s="44"/>
+      <c r="AD42" s="44"/>
+      <c r="AE42" s="44"/>
+      <c r="AF42" s="44"/>
+      <c r="AG42" s="44"/>
+      <c r="AH42" s="44"/>
+      <c r="AI42" s="44"/>
+      <c r="AJ42" s="44"/>
+      <c r="AK42" s="44"/>
+      <c r="AL42" s="44"/>
+      <c r="AM42" s="44"/>
+      <c r="AN42" s="44"/>
+      <c r="AO42" s="44"/>
+      <c r="AP42" s="44"/>
+      <c r="AQ42" s="44"/>
+      <c r="AR42" s="44"/>
+      <c r="AS42" s="44"/>
+      <c r="AT42" s="44"/>
+      <c r="AU42" s="44"/>
+      <c r="AV42" s="44"/>
+      <c r="AW42" s="44"/>
+      <c r="AX42" s="44"/>
+      <c r="AY42" s="44"/>
+      <c r="AZ42" s="44"/>
+      <c r="BA42" s="44"/>
+      <c r="BB42" s="44"/>
+      <c r="BC42" s="44"/>
+      <c r="BD42" s="44"/>
+      <c r="BE42" s="44"/>
+      <c r="BF42" s="44"/>
+      <c r="BG42" s="44"/>
+      <c r="BH42" s="44"/>
+      <c r="BI42" s="44"/>
+      <c r="BJ42" s="44"/>
+      <c r="BK42" s="44"/>
+      <c r="BL42" s="44"/>
     </row>
-    <row r="41" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G41" s="6"/>
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="39"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="46"/>
+      <c r="U43" s="46"/>
+      <c r="V43" s="46"/>
+      <c r="W43" s="46"/>
+      <c r="X43" s="46"/>
+      <c r="Y43" s="46"/>
+      <c r="Z43" s="46"/>
+      <c r="AA43" s="46"/>
+      <c r="AB43" s="46"/>
+      <c r="AC43" s="46"/>
+      <c r="AD43" s="46"/>
+      <c r="AE43" s="46"/>
+      <c r="AF43" s="46"/>
+      <c r="AG43" s="46"/>
+      <c r="AH43" s="46"/>
+      <c r="AI43" s="46"/>
+      <c r="AJ43" s="46"/>
+      <c r="AK43" s="46"/>
+      <c r="AL43" s="46"/>
+      <c r="AM43" s="46"/>
+      <c r="AN43" s="46"/>
+      <c r="AO43" s="46"/>
+      <c r="AP43" s="46"/>
+      <c r="AQ43" s="46"/>
+      <c r="AR43" s="46"/>
+      <c r="AS43" s="46"/>
+      <c r="AT43" s="46"/>
+      <c r="AU43" s="46"/>
+      <c r="AV43" s="46"/>
+      <c r="AW43" s="46"/>
+      <c r="AX43" s="46"/>
+      <c r="AY43" s="46"/>
+      <c r="AZ43" s="46"/>
+      <c r="BA43" s="46"/>
+      <c r="BB43" s="46"/>
+      <c r="BC43" s="46"/>
+      <c r="BD43" s="46"/>
+      <c r="BE43" s="46"/>
+      <c r="BF43" s="46"/>
+      <c r="BG43" s="46"/>
+      <c r="BH43" s="46"/>
+      <c r="BI43" s="46"/>
+      <c r="BJ43" s="46"/>
+      <c r="BK43" s="46"/>
+      <c r="BL43" s="46"/>
     </row>
-    <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C42" s="14"/>
-      <c r="F42" s="50"/>
+    <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G44" s="6"/>
     </row>
-    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C43" s="15"/>
+    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C45" s="14"/>
+      <c r="F45" s="50"/>
+    </row>
+    <row r="46" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C46" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
     <mergeCell ref="AW14:BC14"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D40">
+  <conditionalFormatting sqref="D7:D43">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4745,12 +4987,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL13 I15:BL40 I14:AW14 BD14:BL14">
+  <conditionalFormatting sqref="I5:BL13 I15:BL43 I14:AW14 BD14:BL14">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL13 I15:BL40 I14:AW14 BD14:BL14">
+  <conditionalFormatting sqref="I7:BL13 I15:BL43 I14:AW14 BD14:BL14">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4785,7 +5027,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D40</xm:sqref>
+          <xm:sqref>D7:D43</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
